--- a/biology/Botanique/Acrocarpus_fraxinifolius/Acrocarpus_fraxinifolius.xlsx
+++ b/biology/Botanique/Acrocarpus_fraxinifolius/Acrocarpus_fraxinifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrocarpus fraxinifolius est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire d'Asie tropicale. C'est l'unique espèce du genre Acrocarpus (genre monotypique).
 Ce sont de grands arbres pouvant atteindre 50 mètres, voire 60 mètres, de haut, aux feuilles composées bipennées, aux fleurs régulières (à symétrie pentamère) et aux gousses allongées.
@@ -513,9 +525,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (22 septembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (22 septembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Acrocarpus fraxinifolius var. fraxinifolius
 Acrocarpus fraxinifolius var. guangxiensis S.L. Mo &amp; Y. Wei</t>
         </is>
